--- a/ref.xlsx
+++ b/ref.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\MapScrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B3EC83-19EC-47D1-B985-1CF530391D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DD316-C553-4721-9DE2-37E434FF02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9C8E2F33-D909-4CA3-B8A7-28FA8B436951}"/>
   </bookViews>
@@ -36,21 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Hà Nội</t>
+    <t>Linh Đàm</t>
   </si>
   <si>
-    <t>Hồ Chí Minh</t>
+    <t>Thanh Trì</t>
+  </si>
+  <si>
+    <t>Hoàng Mai</t>
+  </si>
+  <si>
+    <t>Hà Đông</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -77,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A7B05-2B9F-4A37-9434-479E2BF8CFAE}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -431,6 +445,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ref.xlsx
+++ b/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\MapScrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Learning\Code\MapScrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DD316-C553-4721-9DE2-37E434FF02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD8EF5-B2C0-4806-8B7A-A538F31CFB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9C8E2F33-D909-4CA3-B8A7-28FA8B436951}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28650" windowHeight="15345" xr2:uid="{9C8E2F33-D909-4CA3-B8A7-28FA8B436951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Linh Đàm</t>
-  </si>
-  <si>
-    <t>Thanh Trì</t>
-  </si>
-  <si>
-    <t>Hoàng Mai</t>
-  </si>
-  <si>
-    <t>Hà Đông</t>
   </si>
 </sst>
 </file>
@@ -58,14 +49,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -427,32 +418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A7B05-2B9F-4A37-9434-479E2BF8CFAE}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
